--- a/derivatives/hyp_2-2/right/full_data.xlsx
+++ b/derivatives/hyp_2-2/right/full_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jameswyngaarden/Documents/GitHub/istart-eyeballs/derivatives/hyp_2-2/right/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{40DE6455-1628-1D49-8FD8-D5C6EE90A596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{78E630C2-EC1F-CB48-84F3-4B349DEB3F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="640" windowWidth="24240" windowHeight="16580"/>
+    <workbookView xWindow="4580" yWindow="500" windowWidth="24240" windowHeight="16520"/>
   </bookViews>
   <sheets>
     <sheet name="_dat_tstat_c1" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,7 +691,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1050,7 +1049,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+      <selection activeCell="B33" sqref="B33:P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2392,46 +2391,46 @@
       <c r="B33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="3">
         <v>1.1883999999999999</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="3">
         <v>-0.1147</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="3">
         <v>-0.42709999999999998</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="3">
         <v>-0.27679999999999999</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="3">
         <v>0.48</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="3">
         <v>0.59889999999999999</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="3">
         <v>1.0105</v>
       </c>
-      <c r="J33" s="7">
+      <c r="J33" s="3">
         <v>1.6405000000000001</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="3">
         <v>1.4287000000000001</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="3">
         <v>0.65969999999999995</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="3">
         <v>-1.3041</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="3">
         <v>0.31419999999999998</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="3">
         <v>-1.5239</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="3">
         <v>0.45789999999999997</v>
       </c>
       <c r="Q33" s="3"/>
